--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_09-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_09-52.xlsx
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>0:1</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
     <t>MILGA 40 TABLETS</t>
@@ -964,17 +967,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -982,7 +985,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -990,13 +993,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -1008,7 +1011,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1016,17 +1019,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1034,7 +1037,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1042,17 +1045,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1068,7 +1071,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1078,7 +1081,7 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1094,17 +1097,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1112,7 +1115,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1120,17 +1123,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1138,7 +1141,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1146,17 +1149,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1172,17 +1175,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1190,7 +1193,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1198,17 +1201,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1216,7 +1219,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1224,51 +1227,77 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="K24" s="11">
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c t="s" r="B24" s="7">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c t="s" r="H24" s="8">
+        <v>42</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9">
+        <v>30</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="K25" s="11">
         <v>1594.1199999999999</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="12">
-        <v>42</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c t="s" r="F25" s="13">
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="12">
         <v>43</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c t="s" r="I25" s="15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c t="s" r="F26" s="13">
         <v>44</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c t="s" r="I26" s="15">
+        <v>45</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="74">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1336,10 +1365,13 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
